--- a/SchedulingData/dynamic15/pso/scheduling1_12.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_12.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.4</v>
+        <v>56.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.34</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.78</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>26.412</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="4">
@@ -504,131 +504,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63.4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>107.28</v>
+        <v>57.88</v>
       </c>
       <c r="E4" t="n">
-        <v>23.092</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>61.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>26.048</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>80.28</v>
+        <v>125.2</v>
       </c>
       <c r="E6" t="n">
-        <v>26.612</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62.78</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>116.44</v>
+        <v>139.2</v>
       </c>
       <c r="E7" t="n">
-        <v>23.676</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>107.28</v>
+        <v>125.2</v>
       </c>
       <c r="D8" t="n">
-        <v>168.98</v>
+        <v>193.1</v>
       </c>
       <c r="E8" t="n">
-        <v>20.012</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>56.2</v>
       </c>
       <c r="D9" t="n">
-        <v>56.2</v>
+        <v>98.84</v>
       </c>
       <c r="E9" t="n">
-        <v>25.08</v>
+        <v>21.956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>56.2</v>
+        <v>98.84</v>
       </c>
       <c r="D10" t="n">
-        <v>106.2</v>
+        <v>139.04</v>
       </c>
       <c r="E10" t="n">
-        <v>22.22</v>
+        <v>18.576</v>
       </c>
     </row>
     <row r="11">
@@ -637,93 +637,93 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>168.98</v>
+        <v>57.88</v>
       </c>
       <c r="D11" t="n">
-        <v>230.14</v>
+        <v>106.72</v>
       </c>
       <c r="E11" t="n">
-        <v>16.996</v>
+        <v>22.628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106.2</v>
+        <v>139.04</v>
       </c>
       <c r="D12" t="n">
-        <v>199.06</v>
+        <v>210.54</v>
       </c>
       <c r="E12" t="n">
-        <v>18.524</v>
+        <v>15.496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>106.72</v>
       </c>
       <c r="D13" t="n">
-        <v>68.5</v>
+        <v>161.32</v>
       </c>
       <c r="E13" t="n">
-        <v>25.32</v>
+        <v>19.768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>68.5</v>
+        <v>139.2</v>
       </c>
       <c r="D14" t="n">
-        <v>127.16</v>
+        <v>180.66</v>
       </c>
       <c r="E14" t="n">
-        <v>22.064</v>
+        <v>18.344</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>116.44</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>169.12</v>
+        <v>52.22</v>
       </c>
       <c r="E15" t="n">
-        <v>20.028</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>169.12</v>
+        <v>210.54</v>
       </c>
       <c r="D16" t="n">
-        <v>220.28</v>
+        <v>291.94</v>
       </c>
       <c r="E16" t="n">
-        <v>16.052</v>
+        <v>10.936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>199.06</v>
+        <v>291.94</v>
       </c>
       <c r="D17" t="n">
-        <v>261.34</v>
+        <v>354.22</v>
       </c>
       <c r="E17" t="n">
-        <v>14.936</v>
+        <v>7.348</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>261.34</v>
+        <v>180.66</v>
       </c>
       <c r="D18" t="n">
-        <v>323.84</v>
+        <v>242.74</v>
       </c>
       <c r="E18" t="n">
-        <v>11.296</v>
+        <v>14.756</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61.22</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.16</v>
+        <v>46.12</v>
       </c>
       <c r="E19" t="n">
-        <v>22.784</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="20">
@@ -808,93 +808,93 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>127.16</v>
+        <v>46.12</v>
       </c>
       <c r="D20" t="n">
-        <v>192.26</v>
+        <v>111.88</v>
       </c>
       <c r="E20" t="n">
-        <v>18.684</v>
+        <v>23.112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>80.28</v>
+        <v>52.22</v>
       </c>
       <c r="D21" t="n">
-        <v>152.36</v>
+        <v>129.8</v>
       </c>
       <c r="E21" t="n">
-        <v>22.504</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>152.36</v>
+        <v>111.88</v>
       </c>
       <c r="D22" t="n">
-        <v>199.08</v>
+        <v>160.84</v>
       </c>
       <c r="E22" t="n">
-        <v>18.472</v>
+        <v>19.856</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>192.26</v>
+        <v>161.32</v>
       </c>
       <c r="D23" t="n">
-        <v>257.58</v>
+        <v>217.84</v>
       </c>
       <c r="E23" t="n">
-        <v>15.772</v>
+        <v>15.736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>323.84</v>
+        <v>129.8</v>
       </c>
       <c r="D24" t="n">
-        <v>369.16</v>
+        <v>188.3</v>
       </c>
       <c r="E24" t="n">
-        <v>8.384</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>110.16</v>
+        <v>188.3</v>
       </c>
       <c r="D25" t="n">
-        <v>187.4</v>
+        <v>252.8</v>
       </c>
       <c r="E25" t="n">
-        <v>19.66</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>187.4</v>
+        <v>160.84</v>
       </c>
       <c r="D26" t="n">
-        <v>227.26</v>
+        <v>230.16</v>
       </c>
       <c r="E26" t="n">
-        <v>16.804</v>
+        <v>16.064</v>
       </c>
     </row>
     <row r="27">
@@ -941,74 +941,74 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>199.08</v>
+        <v>242.74</v>
       </c>
       <c r="D27" t="n">
-        <v>275.08</v>
+        <v>313.02</v>
       </c>
       <c r="E27" t="n">
-        <v>13.492</v>
+        <v>11.348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>369.16</v>
+        <v>354.22</v>
       </c>
       <c r="D28" t="n">
-        <v>454.16</v>
+        <v>425.42</v>
       </c>
       <c r="E28" t="n">
-        <v>4.464</v>
+        <v>3.828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>220.28</v>
+        <v>252.8</v>
       </c>
       <c r="D29" t="n">
-        <v>271.58</v>
+        <v>305.82</v>
       </c>
       <c r="E29" t="n">
-        <v>13.532</v>
+        <v>12.528</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>257.58</v>
+        <v>193.1</v>
       </c>
       <c r="D30" t="n">
-        <v>319.18</v>
+        <v>254.24</v>
       </c>
       <c r="E30" t="n">
-        <v>12.252</v>
+        <v>15.076</v>
       </c>
     </row>
     <row r="31">
@@ -1017,79 +1017,79 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>319.18</v>
+        <v>230.16</v>
       </c>
       <c r="D31" t="n">
-        <v>388.16</v>
+        <v>286.78</v>
       </c>
       <c r="E31" t="n">
-        <v>9.444000000000001</v>
+        <v>12.512</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>227.26</v>
+        <v>286.78</v>
       </c>
       <c r="D32" t="n">
-        <v>295.4</v>
+        <v>377.3</v>
       </c>
       <c r="E32" t="n">
-        <v>14.1</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>295.4</v>
+        <v>377.3</v>
       </c>
       <c r="D33" t="n">
-        <v>356.82</v>
+        <v>440</v>
       </c>
       <c r="E33" t="n">
-        <v>10.068</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>275.08</v>
+        <v>425.42</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4</v>
+        <v>484</v>
       </c>
       <c r="E34" t="n">
-        <v>9.699999999999999</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>454.16</v>
+        <v>484</v>
       </c>
       <c r="D35" t="n">
-        <v>551.63</v>
+        <v>569.64</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,306 +1108,306 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>551.63</v>
+        <v>305.82</v>
       </c>
       <c r="D36" t="n">
-        <v>619.13</v>
+        <v>368.98</v>
       </c>
       <c r="E36" t="n">
-        <v>25.44</v>
+        <v>8.832000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>356.82</v>
+        <v>217.84</v>
       </c>
       <c r="D37" t="n">
-        <v>409.32</v>
+        <v>283.22</v>
       </c>
       <c r="E37" t="n">
-        <v>6.948</v>
+        <v>12.788</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>230.14</v>
+        <v>440</v>
       </c>
       <c r="D38" t="n">
-        <v>294.2</v>
+        <v>504.18</v>
       </c>
       <c r="E38" t="n">
-        <v>13.72</v>
+        <v>1.112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>409.32</v>
+        <v>504.18</v>
       </c>
       <c r="D39" t="n">
-        <v>472.58</v>
+        <v>598.46</v>
       </c>
       <c r="E39" t="n">
-        <v>4.212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>294.2</v>
+        <v>254.24</v>
       </c>
       <c r="D40" t="n">
-        <v>350.12</v>
+        <v>299.52</v>
       </c>
       <c r="E40" t="n">
-        <v>10.728</v>
+        <v>11.688</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>388.16</v>
+        <v>569.64</v>
       </c>
       <c r="D41" t="n">
-        <v>476.86</v>
+        <v>645.96</v>
       </c>
       <c r="E41" t="n">
-        <v>4.644</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>324.4</v>
+        <v>598.46</v>
       </c>
       <c r="D42" t="n">
-        <v>369.78</v>
+        <v>646.12</v>
       </c>
       <c r="E42" t="n">
-        <v>6.292</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>271.58</v>
+        <v>299.52</v>
       </c>
       <c r="D43" t="n">
-        <v>346.78</v>
+        <v>355.62</v>
       </c>
       <c r="E43" t="n">
-        <v>8.612</v>
+        <v>9.167999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>472.58</v>
+        <v>313.02</v>
       </c>
       <c r="D44" t="n">
-        <v>505.58</v>
+        <v>351.68</v>
       </c>
       <c r="E44" t="n">
-        <v>2.052</v>
+        <v>8.612</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>346.78</v>
+        <v>355.62</v>
       </c>
       <c r="D45" t="n">
-        <v>405.18</v>
+        <v>405</v>
       </c>
       <c r="E45" t="n">
-        <v>5.372</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>350.12</v>
+        <v>368.98</v>
       </c>
       <c r="D46" t="n">
-        <v>396.56</v>
+        <v>418.32</v>
       </c>
       <c r="E46" t="n">
-        <v>6.724</v>
+        <v>5.528</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>405.18</v>
+        <v>418.32</v>
       </c>
       <c r="D47" t="n">
-        <v>457.58</v>
+        <v>476.56</v>
       </c>
       <c r="E47" t="n">
-        <v>2.252</v>
+        <v>2.824</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>476.86</v>
+        <v>351.68</v>
       </c>
       <c r="D48" t="n">
-        <v>533.8200000000001</v>
+        <v>426.98</v>
       </c>
       <c r="E48" t="n">
-        <v>2.048</v>
+        <v>3.692</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>533.8200000000001</v>
+        <v>426.98</v>
       </c>
       <c r="D49" t="n">
-        <v>611.42</v>
+        <v>454.98</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>611.42</v>
+        <v>454.98</v>
       </c>
       <c r="D50" t="n">
-        <v>644.12</v>
+        <v>543.42</v>
       </c>
       <c r="E50" t="n">
-        <v>27.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>619.13</v>
+        <v>283.22</v>
       </c>
       <c r="D51" t="n">
-        <v>664.23</v>
+        <v>342.62</v>
       </c>
       <c r="E51" t="n">
-        <v>22.06</v>
+        <v>7.988</v>
       </c>
     </row>
     <row r="52">
@@ -1416,36 +1416,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>369.78</v>
+        <v>543.42</v>
       </c>
       <c r="D52" t="n">
-        <v>443.64</v>
+        <v>576.12</v>
       </c>
       <c r="E52" t="n">
-        <v>3.036</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>457.58</v>
+        <v>342.62</v>
       </c>
       <c r="D53" t="n">
-        <v>539.78</v>
+        <v>387.94</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>5.076</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>539.78</v>
+        <v>645.96</v>
       </c>
       <c r="D54" t="n">
-        <v>610.5599999999999</v>
+        <v>704.72</v>
       </c>
       <c r="E54" t="n">
-        <v>27.052</v>
+        <v>23.732</v>
       </c>
     </row>
     <row r="55">
@@ -1473,33 +1473,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>396.56</v>
+        <v>387.94</v>
       </c>
       <c r="D55" t="n">
-        <v>460.94</v>
+        <v>457.94</v>
       </c>
       <c r="E55" t="n">
-        <v>2.916</v>
+        <v>1.696</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>505.58</v>
+        <v>457.94</v>
       </c>
       <c r="D56" t="n">
-        <v>592.98</v>
+        <v>555.85</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1511,17 +1511,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>592.98</v>
+        <v>476.56</v>
       </c>
       <c r="D57" t="n">
-        <v>667.42</v>
+        <v>562.51</v>
       </c>
       <c r="E57" t="n">
-        <v>26.696</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -1530,36 +1530,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>667.42</v>
+        <v>562.51</v>
       </c>
       <c r="D58" t="n">
-        <v>714.24</v>
+        <v>653.11</v>
       </c>
       <c r="E58" t="n">
-        <v>23.144</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>460.94</v>
+        <v>405</v>
       </c>
       <c r="D59" t="n">
-        <v>551.61</v>
+        <v>463.26</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>3.624</v>
       </c>
     </row>
     <row r="60">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>551.61</v>
+        <v>555.85</v>
       </c>
       <c r="D60" t="n">
-        <v>605.23</v>
+        <v>639.8099999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>26.808</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="61">
@@ -1587,17 +1587,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>644.12</v>
+        <v>646.12</v>
       </c>
       <c r="D61" t="n">
-        <v>708.62</v>
+        <v>700.88</v>
       </c>
       <c r="E61" t="n">
-        <v>24.56</v>
+        <v>24.548</v>
       </c>
     </row>
   </sheetData>
